--- a/code lists/DE4A Code Lists - Process Identifiers v2-draft.xlsx
+++ b/code lists/DE4A Code Lists - Process Identifiers v2-draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-de4a\de4a-codelists\code lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195E5D91-B1A6-4708-BEF1-E05ED4B21529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7BBCF3-67D3-4374-AEA6-38E222331141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27495" yWindow="450" windowWidth="21735" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="5" r:id="rId1"/>
@@ -23,16 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>Deprecated</t>
-  </si>
-  <si>
-    <t>Since</t>
-  </si>
-  <si>
-    <t>Deprecated Since</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>urn:de4a-eu:MessageType</t>
   </si>
@@ -62,6 +53,18 @@
   </si>
   <si>
     <t>Iteration 1 identifier</t>
+  </si>
+  <si>
+    <t>Initial version</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Deprecation version</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -127,9 +130,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -142,10 +142,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -559,82 +565,82 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/code lists/DE4A Code Lists - Process Identifiers v2-draft.xlsx
+++ b/code lists/DE4A Code Lists - Process Identifiers v2-draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-de4a\de4a-codelists\code lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier.ferrero\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7BBCF3-67D3-4374-AEA6-38E222331141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986CF566-0173-4BB8-B380-ADE1305F668D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27495" yWindow="450" windowWidth="21735" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>urn:de4a-eu:MessageType</t>
   </si>
@@ -52,12 +52,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Iteration 1 identifier</t>
-  </si>
-  <si>
-    <t>Initial version</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -65,6 +59,18 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>DE4A Notification</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>Initial iteration</t>
+  </si>
+  <si>
+    <t>Iteration 2 identifier</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,21 +567,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="3"/>
   </cols>
@@ -591,13 +597,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>8</v>
@@ -617,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -637,10 +643,30 @@
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
